--- a/Molecular_Descriptors.xlsx
+++ b/Molecular_Descriptors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nache\Downloads\Proyectos\Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E94254-4D98-4400-8682-4848248EF4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD00880-C0A4-49DE-9496-668183785C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56DDDFEB-6829-4401-940E-8C7F1EF28ED9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Molecular descriptors</t>
   </si>
@@ -83,18 +83,6 @@
 MOE-type</t>
   </si>
   <si>
-    <t>Valence molecular connectivity Chi index for path order 0
-Weiner index
-The information content with order 0 proposed by Basak
-Kappa alpha index for 1 bonded fragment
-Highest eigenvaluen.1 of Burden matrix/weighted by atomic masses
-Sum of E-State of atom type: sLi
-Moran autocorrelation-lag1/weighted by atomic masses
-Molar refractivity
-Most positive charge on H atoms 
-MOE-type descriptors using surface area contributions and Estate indices</t>
-  </si>
-  <si>
     <t>Geometrical
 CPSA
 RDF
@@ -102,17 +90,7 @@
 MoRSE</t>
   </si>
   <si>
-    <t>Span R
-Partial negative surface area
-3D-RDF - signal 01 / unweighted
-T total size index / unweighted
-3D-MoRSE - signal 01 / weighted by atomic charge</t>
-  </si>
-  <si>
     <t>RDKit</t>
-  </si>
-  <si>
-    <t>The average molecular weight of the molecule ignoring hydrogens.</t>
   </si>
   <si>
     <t>Connectivity
@@ -123,24 +101,10 @@
 Topological</t>
   </si>
   <si>
-    <t>Valence molecular connectivity Chi index for path order 1
-LogP value
-MOE Charge VSA Descriptor 1
-Hall-Kier Kappa1 value
-Max partial charges of a molecule
-Balaban's J index calculation</t>
-  </si>
-  <si>
     <t>Geometrical</t>
   </si>
   <si>
-    <t>Asphericity</t>
-  </si>
-  <si>
     <t>AlvaDesc</t>
-  </si>
-  <si>
-    <t>Number of atoms</t>
   </si>
   <si>
     <t>Topological
@@ -161,24 +125,6 @@
 Molecular property</t>
   </si>
   <si>
-    <t>First Zagreb Index calculation
-Molecular walk count of order 1
-Average connectivity index of order 0
-Total information index on atomic composition
-Balaban-like index from adjacency matrix
-Geary autocorrelation of lag 1 weighted by mass 
-Largest eigenvalue n. 1 of Burden matrix weighted by polarizability
-P_VSA-like on LogP, bin 1
-ETA core count
-Leading eigenvalue from edge adjacency matrix
-Frequency of P – P at topological distance 6
-Sum of sCH3 E-states
-Hydrogen attached to heteroatom
-SHED Acceptor-Negative
-Local dipole index
-Hydrophilic factor</t>
-  </si>
-  <si>
     <t>Geometrical
 3D Matrix-Based
 3D Autocorrelation
@@ -195,34 +141,12 @@
 Chilarity</t>
   </si>
   <si>
-    <t>Gravitational index G1
-Wiener-like index from geometrical matrix
-3D Topological distance based descriptors – lag 1 unweighted
-Radial Distribution Function – 155 / weighted by I-state
-Signal 01 / weighted by I-state
-1st component size directional WHIM index / unweighted
-R total index / weighted by I-state
-Molecular profile no. 1
-Number of aromatic aldehydes
-Sum of geometrical distances between S and F
-Quantitative Estimation of Drug-likeness
-CATS3D Lipophilic-Lipophilic BIN 19
-WHALES Remoteness
-Molecular distance edge between all tertiary nitrogens
-s1_phSize normalized by the heavy atoms</t>
-  </si>
-  <si>
     <t>CDK</t>
   </si>
   <si>
     <t>Constitutional
 Ring
 Functional Group Counts</t>
-  </si>
-  <si>
-    <t>Number of atoms in the largest chain
-Number of smallest rings
-Number of acidic groups</t>
   </si>
   <si>
     <t>Autocorrelation
@@ -235,28 +159,12 @@
 Topological</t>
   </si>
   <si>
-    <t>Moreau-Broto weight autocorrelation by mass
-Lowest partial charge weighted
-Valence chain order 3
-Second kappa shape index
-Sum of E-State of atom type: ssBe
-Number of hydrogen bond acceptors
-Ionization potential of a molecule
-Sum of path lengths starting from oxygens</t>
-  </si>
-  <si>
     <t>CPSA
 WHIM
 MDE
 Geometrical</t>
   </si>
   <si>
-    <t>Sum of surface area on positive parts of molecule
-Calculate Wlambda1
-Molecular distance edge between all primary carbons
-Radius of gyration</t>
-  </si>
-  <si>
     <t>OpenBabel</t>
   </si>
   <si>
@@ -266,13 +174,99 @@
 Spectrophore</t>
   </si>
   <si>
-    <t>Melting point
+    <t>No</t>
+  </si>
+  <si>
+    <t>Molecular weight
+Number of smallest rings
+Number of acidic groups</t>
+  </si>
+  <si>
+    <t>Molecular weight
 InChIKey
 SMARTS filter
 Spectrophores</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Moreau-Broto weight autocorrelation by mass
+Highest eigenvaluen.1 of Burden matrix/weighted by atomic masses
+Valence molecular connectivity Chi index for path order 0
+Second kappa shape index
+Sum of E-State of atom type: sLi
+Molar refractivity
+Ionization potential of a molecule
+Wiener Index</t>
+  </si>
+  <si>
+    <t>Valence molecular connectivity Chi index for path order 0
+Molar refractivity
+MOE Charge VSA Descriptor 1
+Second kappa shape index
+Sum of E-State of atom type: sLi
+Wiener Index</t>
+  </si>
+  <si>
+    <t>Valence molecular connectivity Chi index for path order 0
+Wiener Index
+The information content with order 0 proposed by Basak
+Second kappa shape index
+Highest eigenvaluen.1 of Burden matrix/weighted by atomic masses
+Sum of E-State of atom type: sLi
+Moreau-Broto weight autocorrelation by mass
+Molar refractivity
+Most positive charge on H atoms 
+MOE Charge VSA Descriptor 1</t>
+  </si>
+  <si>
+    <t>Wiener Index
+Molecular walk count of order 1
+Valence molecular connectivity Chi index for path order 0
+Total information index on atomic composition
+Balaban-like index from adjacency matrix
+Moreau-Broto weight autocorrelation by mass
+Highest eigenvaluen.1 of Burden matrix/weighted by atomic masses
+MOE Charge VSA Descriptor 1
+ETA core count
+Leading eigenvalue from edge adjacency matrix
+Frequency of P – P at topological distance 6
+Sum of E-State of atom type: sLi
+Hydrogen attached to heteroatom
+SHED Acceptor-Negative
+Most positive charge on H atoms 
+Molar refractivity</t>
+  </si>
+  <si>
+    <t>Radius of gyration</t>
+  </si>
+  <si>
+    <t>Partial negative surface area
+Calculate Wlambda1
+Molecular distance edge between all primary carbons
+Radius of gyration</t>
+  </si>
+  <si>
+    <t>Radius of gyration
+Partial negative surface area
+3D-RDF - signal 01 / unweighted
+Calculate Wlambda1
+3D-MoRSE - signal 01 / weighted by atomic charge</t>
+  </si>
+  <si>
+    <t>Radius of gyration
+Wiener-like index from geometrical matrix
+3D Topological distance based descriptors – lag 1 unweighted
+Radial Distribution Function – 155 / weighted by I-state
+3D-MoRSE - signal 01 / weighted by atomic charge
+Calculate Wlambda1
+R total index / weighted by I-state
+Molecular profile no. 1
+Number of aromatic aldehydes
+Sum of geometrical distances between S and F
+Quantitative Estimation of Drug-likeness
+CATS3D Lipophilic-Lipophilic BIN 19
+WHALES Remoteness
+Molecular distance edge between all primary carbons
+s1_phSize normalized by the heavy atoms</t>
   </si>
 </sst>
 </file>
@@ -333,10 +327,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30C35E6-8B24-4DA3-A87D-F886058CFB17}">
   <dimension ref="B2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,18 +685,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -766,21 +760,21 @@
         <v>11</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I5" s="4">
         <v>502</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
         <v>108</v>
@@ -789,30 +783,30 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4">
         <v>86</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I6" s="4">
         <v>12</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4">
         <v>50</v>
@@ -821,54 +815,54 @@
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4">
         <v>3827</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="7">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1">
         <v>1600</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4">
         <v>239</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" s="4">
         <v>20</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="7">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1">
         <v>10</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>33</v>
@@ -876,29 +870,29 @@
     </row>
     <row r="9" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="7">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
         <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7">
+      <c r="G9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>37</v>
+      <c r="J9" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="K9" s="5"/>
     </row>
